--- a/Instances/G5047313_NonStationary_b4_fe25_el_rk50_ll2_l40_HTrue_c10.xlsx
+++ b/Instances/G5047313_NonStationary_b4_fe25_el_rk50_ll2_l40_HTrue_c10.xlsx
@@ -986,7 +986,7 @@
         <v>10</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -1004,7 +1004,7 @@
         <v>70</v>
       </c>
       <c r="H2" t="n">
-        <v>10.900146484375</v>
+        <v>10.03427734375</v>
       </c>
       <c r="I2" t="n">
         <v>448</v>
@@ -1036,7 +1036,7 @@
         <v>30</v>
       </c>
       <c r="H3" t="n">
-        <v>3.717268880208333</v>
+        <v>4.466650390625</v>
       </c>
       <c r="I3" t="n">
         <v>496</v>
@@ -1050,7 +1050,7 @@
         <v>12</v>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -1068,7 +1068,7 @@
         <v>50</v>
       </c>
       <c r="H4" t="n">
-        <v>6.990869140625</v>
+        <v>6.761295572916667</v>
       </c>
       <c r="I4" t="n">
         <v>492</v>
@@ -1100,7 +1100,7 @@
         <v>100</v>
       </c>
       <c r="H5" t="n">
-        <v>13.041552734375</v>
+        <v>15.61564127604167</v>
       </c>
       <c r="I5" t="n">
         <v>444</v>
@@ -1114,7 +1114,7 @@
         <v>14</v>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -1146,7 +1146,7 @@
         <v>15</v>
       </c>
       <c r="B7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1178,7 +1178,7 @@
         <v>16</v>
       </c>
       <c r="B8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1210,7 +1210,7 @@
         <v>17</v>
       </c>
       <c r="B9" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -1242,7 +1242,7 @@
         <v>18</v>
       </c>
       <c r="B10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1274,7 +1274,7 @@
         <v>19</v>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -1532,16 +1532,16 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>41</v>
+        <v>93</v>
       </c>
       <c r="C7" t="n">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="D7" t="n">
         <v>65</v>
       </c>
       <c r="E7" t="n">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1567,16 +1567,16 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>84</v>
+        <v>47</v>
       </c>
       <c r="C8" t="n">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="D8" t="n">
-        <v>63</v>
+        <v>1</v>
       </c>
       <c r="E8" t="n">
-        <v>135</v>
+        <v>59</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -1602,16 +1602,16 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C9" t="n">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="D9" t="n">
-        <v>31</v>
+        <v>82</v>
       </c>
       <c r="E9" t="n">
-        <v>148</v>
+        <v>117</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -1637,16 +1637,16 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>85</v>
+        <v>48</v>
       </c>
       <c r="C10" t="n">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="D10" t="n">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="E10" t="n">
-        <v>131</v>
+        <v>86</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1672,16 +1672,16 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>76</v>
+        <v>104</v>
       </c>
       <c r="C11" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D11" t="n">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="E11" t="n">
-        <v>116</v>
+        <v>27</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -1707,16 +1707,16 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="C12" t="n">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="D12" t="n">
-        <v>89</v>
+        <v>6</v>
       </c>
       <c r="E12" t="n">
-        <v>34</v>
+        <v>86</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
@@ -1742,16 +1742,16 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>97</v>
+        <v>47</v>
       </c>
       <c r="C13" t="n">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="D13" t="n">
-        <v>15</v>
+        <v>69</v>
       </c>
       <c r="E13" t="n">
-        <v>76</v>
+        <v>151</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1777,16 +1777,16 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>40</v>
+        <v>111</v>
       </c>
       <c r="C14" t="n">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D14" t="n">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="E14" t="n">
-        <v>45</v>
+        <v>140</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -1812,16 +1812,16 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>81</v>
+        <v>65</v>
       </c>
       <c r="C15" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D15" t="n">
-        <v>33</v>
+        <v>63</v>
       </c>
       <c r="E15" t="n">
-        <v>24</v>
+        <v>135</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
@@ -1847,16 +1847,16 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="C16" t="n">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="D16" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E16" t="n">
-        <v>99</v>
+        <v>137</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -2108,16 +2108,16 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>5.125</v>
+        <v>11.625</v>
       </c>
       <c r="C7" t="n">
-        <v>5.25</v>
+        <v>4.125</v>
       </c>
       <c r="D7" t="n">
         <v>8.125</v>
       </c>
       <c r="E7" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -2143,16 +2143,16 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>15.75</v>
+        <v>8.8125</v>
       </c>
       <c r="C8" t="n">
-        <v>7.6875</v>
+        <v>3.5625</v>
       </c>
       <c r="D8" t="n">
-        <v>11.8125</v>
+        <v>0.1875</v>
       </c>
       <c r="E8" t="n">
-        <v>25.3125</v>
+        <v>11.0625</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -2178,16 +2178,16 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>14.21875</v>
+        <v>14.4375</v>
       </c>
       <c r="C9" t="n">
-        <v>4.15625</v>
+        <v>5.90625</v>
       </c>
       <c r="D9" t="n">
-        <v>6.78125</v>
+        <v>17.9375</v>
       </c>
       <c r="E9" t="n">
-        <v>32.375</v>
+        <v>25.59375</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -2213,16 +2213,16 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>19.921875</v>
+        <v>11.25</v>
       </c>
       <c r="C10" t="n">
-        <v>3.046875</v>
+        <v>9.84375</v>
       </c>
       <c r="D10" t="n">
-        <v>11.953125</v>
+        <v>9.84375</v>
       </c>
       <c r="E10" t="n">
-        <v>30.703125</v>
+        <v>20.15625</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -2248,16 +2248,16 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>18.40625</v>
+        <v>25.1875</v>
       </c>
       <c r="C11" t="n">
-        <v>5.328125</v>
+        <v>5.5703125</v>
       </c>
       <c r="D11" t="n">
-        <v>10.8984375</v>
+        <v>13.5625</v>
       </c>
       <c r="E11" t="n">
-        <v>28.09375</v>
+        <v>6.5390625</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -2283,16 +2283,16 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>24.609375</v>
+        <v>19.6875</v>
       </c>
       <c r="C12" t="n">
-        <v>6.64453125</v>
+        <v>10.3359375</v>
       </c>
       <c r="D12" t="n">
-        <v>21.90234375</v>
+        <v>1.4765625</v>
       </c>
       <c r="E12" t="n">
-        <v>8.3671875</v>
+        <v>21.1640625</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
@@ -2318,16 +2318,16 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>24.060546875</v>
+        <v>11.658203125</v>
       </c>
       <c r="C13" t="n">
-        <v>8.9296875</v>
+        <v>6.44921875</v>
       </c>
       <c r="D13" t="n">
-        <v>3.720703125</v>
+        <v>17.115234375</v>
       </c>
       <c r="E13" t="n">
-        <v>18.8515625</v>
+        <v>37.455078125</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -2353,16 +2353,16 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>9.9609375</v>
+        <v>27.6416015625</v>
       </c>
       <c r="C14" t="n">
-        <v>4.7314453125</v>
+        <v>5.9765625</v>
       </c>
       <c r="D14" t="n">
-        <v>14.6923828125</v>
+        <v>10.458984375</v>
       </c>
       <c r="E14" t="n">
-        <v>11.2060546875</v>
+        <v>34.86328125</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -2388,16 +2388,16 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>20.21044921875</v>
+        <v>16.21826171875</v>
       </c>
       <c r="C15" t="n">
-        <v>5.73876953125</v>
+        <v>4.990234375</v>
       </c>
       <c r="D15" t="n">
-        <v>8.23388671875</v>
+        <v>15.71923828125</v>
       </c>
       <c r="E15" t="n">
-        <v>5.98828125</v>
+        <v>33.68408203125</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
@@ -2423,16 +2423,16 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>11.239013671875</v>
+        <v>3.99609375</v>
       </c>
       <c r="C16" t="n">
-        <v>4.245849609375</v>
+        <v>10.239990234375</v>
       </c>
       <c r="D16" t="n">
-        <v>6.743408203125</v>
+        <v>6.9931640625</v>
       </c>
       <c r="E16" t="n">
-        <v>24.725830078125</v>
+        <v>34.216552734375</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -2482,7 +2482,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1720</v>
+        <v>1740</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -2490,7 +2490,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>2740</v>
+        <v>2960</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -2498,7 +2498,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>5790</v>
+        <v>5940</v>
       </c>
     </row>
   </sheetData>
